--- a/mapa_gro/lista_tiendas_gro .xlsx
+++ b/mapa_gro/lista_tiendas_gro .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>cadena</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Tlapa De Comonfort</t>
+  </si>
+  <si>
+    <t>Chilapa De Alvarez</t>
   </si>
 </sst>
 </file>
@@ -978,10 +981,13 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1061,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1363,5 +1369,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="172" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>